--- a/Day 1- Mastering Formulas + Pivot Tables in Excel/1-Lookup & Decision Formulas/X - Working with Formulas.xlsx
+++ b/Day 1- Mastering Formulas + Pivot Tables in Excel/1-Lookup & Decision Formulas/X - Working with Formulas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpo64\Desktop\Courses\Elementsix\Day 1- Mastering Formulas + Pivot Tables in Excel\1-Lookup &amp; Decision Formulas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpo64\Documents\GitHub\element-six\Day 1- Mastering Formulas + Pivot Tables in Excel\1-Lookup &amp; Decision Formulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CF5D18-8D2D-451E-8F57-89C02508F98D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1ABFA05-D4BD-4D35-B23C-927297511412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="507" windowWidth="25786" windowHeight="13986" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,7 +439,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$3:$H$12" spid="_x0000_s2054"/>
+                  <a14:cameraTool cellRange="$B$3:$H$12" spid="_x0000_s2055"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
